--- a/Distinguishable/WCAG_1.4.5_ImagesOfText_Narayanan_Palani_TestCase_v1.xlsx
+++ b/Distinguishable/WCAG_1.4.5_ImagesOfText_Narayanan_Palani_TestCase_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Udemy_Supreme_Quality\13 Write Accessibility Testing-Test Cases\GithubRepo\webAccessibilityTestCases\Distinguishable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922A37AF-44DE-41E5-8777-E97005ABDF39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF767EC-4AB3-48B6-9F28-5C7FD541C590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20730" yWindow="525" windowWidth="15375" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case" sheetId="1" r:id="rId1"/>
@@ -312,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -371,6 +371,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,7 +721,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,6 +974,9 @@
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:11" ht="68.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="9" t="s">
         <v>37</v>
       </c>
@@ -988,7 +992,10 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="4:11" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="9" t="s">
         <v>44</v>
       </c>
